--- a/ApachePOIAndSeleniumTestNG/Excel1.xlsx
+++ b/ApachePOIAndSeleniumTestNG/Excel1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmet\eclipse-workspace-2018-09\ExcelWithSelenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmet\OneDrive\Masaüstü\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFA2605-F474-405A-A222-406B3E3C9A68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856C3207-D3A3-449B-8A2C-5B7B4CB00BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
-  <si>
-    <t>Marka</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+  <si>
+    <t>MARKA</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Note20</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>Note10 Pro</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>Note9</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>A70</t>
+  </si>
+  <si>
+    <t>P30 Pro</t>
   </si>
 </sst>
 </file>
@@ -365,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="A11:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,31 +433,77 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>